--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnfsf13</t>
   </si>
   <si>
     <t>Fas</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.478734704718511</v>
+        <v>0.5253763333333333</v>
       </c>
       <c r="H2">
-        <v>0.478734704718511</v>
+        <v>1.576129</v>
       </c>
       <c r="I2">
-        <v>0.1056578995220702</v>
+        <v>0.08315346361753381</v>
       </c>
       <c r="J2">
-        <v>0.1056578995220702</v>
+        <v>0.0831534636175338</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.8049558752657</v>
+        <v>18.76206733333333</v>
       </c>
       <c r="N2">
-        <v>15.8049558752657</v>
+        <v>56.286202</v>
       </c>
       <c r="O2">
-        <v>0.4791304495834441</v>
+        <v>0.5119187575860197</v>
       </c>
       <c r="P2">
-        <v>0.4791304495834441</v>
+        <v>0.5119187575860197</v>
       </c>
       <c r="Q2">
-        <v>7.56638088403442</v>
+        <v>9.857146141339776</v>
       </c>
       <c r="R2">
-        <v>7.56638088403442</v>
+        <v>88.71431527205799</v>
       </c>
       <c r="S2">
-        <v>0.05062391690005186</v>
+        <v>0.0425678177840622</v>
       </c>
       <c r="T2">
-        <v>0.05062391690005186</v>
+        <v>0.04256781778406219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.478734704718511</v>
+        <v>0.5253763333333333</v>
       </c>
       <c r="H3">
-        <v>0.478734704718511</v>
+        <v>1.576129</v>
       </c>
       <c r="I3">
-        <v>0.1056578995220702</v>
+        <v>0.08315346361753381</v>
       </c>
       <c r="J3">
-        <v>0.1056578995220702</v>
+        <v>0.0831534636175338</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.821010585709701</v>
+        <v>9.053322999999999</v>
       </c>
       <c r="N3">
-        <v>8.821010585709701</v>
+        <v>27.159969</v>
       </c>
       <c r="O3">
-        <v>0.267410728702231</v>
+        <v>0.2470178674794012</v>
       </c>
       <c r="P3">
-        <v>0.267410728702231</v>
+        <v>0.2470178674794012</v>
       </c>
       <c r="Q3">
-        <v>4.222923898068593</v>
+        <v>4.756401642222333</v>
       </c>
       <c r="R3">
-        <v>4.222923898068593</v>
+        <v>42.80761478000099</v>
       </c>
       <c r="S3">
-        <v>0.0282540559043439</v>
+        <v>0.02054039125632918</v>
       </c>
       <c r="T3">
-        <v>0.0282540559043439</v>
+        <v>0.02054039125632918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.478734704718511</v>
+        <v>0.5253763333333333</v>
       </c>
       <c r="H4">
-        <v>0.478734704718511</v>
+        <v>1.576129</v>
       </c>
       <c r="I4">
-        <v>0.1056578995220702</v>
+        <v>0.08315346361753381</v>
       </c>
       <c r="J4">
-        <v>0.1056578995220702</v>
+        <v>0.0831534636175338</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.23514975198574</v>
+        <v>4.687234</v>
       </c>
       <c r="N4">
-        <v>4.23514975198574</v>
+        <v>14.061702</v>
       </c>
       <c r="O4">
-        <v>0.1283894254901251</v>
+        <v>0.1278901180325659</v>
       </c>
       <c r="P4">
-        <v>0.1283894254901251</v>
+        <v>0.1278901180325659</v>
       </c>
       <c r="Q4">
-        <v>2.027513165955568</v>
+        <v>2.462561812395333</v>
       </c>
       <c r="R4">
-        <v>2.027513165955568</v>
+        <v>22.163056311558</v>
       </c>
       <c r="S4">
-        <v>0.01356535701813195</v>
+        <v>0.01063450627686307</v>
       </c>
       <c r="T4">
-        <v>0.01356535701813195</v>
+        <v>0.01063450627686308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.478734704718511</v>
+        <v>0.5253763333333333</v>
       </c>
       <c r="H5">
-        <v>0.478734704718511</v>
+        <v>1.576129</v>
       </c>
       <c r="I5">
-        <v>0.1056578995220702</v>
+        <v>0.08315346361753381</v>
       </c>
       <c r="J5">
-        <v>0.1056578995220702</v>
+        <v>0.0831534636175338</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.12563277994157</v>
+        <v>4.147854</v>
       </c>
       <c r="N5">
-        <v>4.12563277994157</v>
+        <v>12.443562</v>
       </c>
       <c r="O5">
-        <v>0.1250693962241997</v>
+        <v>0.1131732569020131</v>
       </c>
       <c r="P5">
-        <v>0.1250693962241997</v>
+        <v>0.1131732569020132</v>
       </c>
       <c r="Q5">
-        <v>1.975083590682337</v>
+        <v>2.179184325722</v>
       </c>
       <c r="R5">
-        <v>1.975083590682337</v>
+        <v>19.612658931498</v>
       </c>
       <c r="S5">
-        <v>0.01321456969954248</v>
+        <v>0.009410748300279357</v>
       </c>
       <c r="T5">
-        <v>0.01321456969954248</v>
+        <v>0.009410748300279357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.05225357806967</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
-        <v>4.05225357806967</v>
+        <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="J6">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8049558752657</v>
+        <v>18.76206733333333</v>
       </c>
       <c r="N6">
-        <v>15.8049558752657</v>
+        <v>56.286202</v>
       </c>
       <c r="O6">
-        <v>0.4791304495834441</v>
+        <v>0.5119187575860197</v>
       </c>
       <c r="P6">
-        <v>0.4791304495834441</v>
+        <v>0.5119187575860197</v>
       </c>
       <c r="Q6">
-        <v>64.04568899677868</v>
+        <v>9.312020528992219</v>
       </c>
       <c r="R6">
-        <v>64.04568899677868</v>
+        <v>83.80818476092999</v>
       </c>
       <c r="S6">
-        <v>0.4285065326833922</v>
+        <v>0.04021370763868069</v>
       </c>
       <c r="T6">
-        <v>0.4285065326833922</v>
+        <v>0.04021370763868069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.05225357806967</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
-        <v>4.05225357806967</v>
+        <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="J7">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.821010585709701</v>
+        <v>9.053322999999999</v>
       </c>
       <c r="N7">
-        <v>8.821010585709701</v>
+        <v>27.159969</v>
       </c>
       <c r="O7">
-        <v>0.267410728702231</v>
+        <v>0.2470178674794012</v>
       </c>
       <c r="P7">
-        <v>0.267410728702231</v>
+        <v>0.2470178674794012</v>
       </c>
       <c r="Q7">
-        <v>35.74497170813257</v>
+        <v>4.493360360231666</v>
       </c>
       <c r="R7">
-        <v>35.74497170813257</v>
+        <v>40.44024324208499</v>
       </c>
       <c r="S7">
-        <v>0.2391566727978871</v>
+        <v>0.01940445462711502</v>
       </c>
       <c r="T7">
-        <v>0.2391566727978871</v>
+        <v>0.01940445462711502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.05225357806967</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H8">
-        <v>4.05225357806967</v>
+        <v>1.488965</v>
       </c>
       <c r="I8">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="J8">
-        <v>0.8943421004779297</v>
+        <v>0.07855486254950021</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.23514975198574</v>
+        <v>4.687234</v>
       </c>
       <c r="N8">
-        <v>4.23514975198574</v>
+        <v>14.061702</v>
       </c>
       <c r="O8">
-        <v>0.1283894254901251</v>
+        <v>0.1278901180325659</v>
       </c>
       <c r="P8">
-        <v>0.1283894254901251</v>
+        <v>0.1278901180325659</v>
       </c>
       <c r="Q8">
-        <v>17.16190073614509</v>
+        <v>2.326375790936666</v>
       </c>
       <c r="R8">
-        <v>17.16190073614509</v>
+        <v>20.93738211843</v>
       </c>
       <c r="S8">
-        <v>0.1148240684719931</v>
+        <v>0.01004639064348757</v>
       </c>
       <c r="T8">
-        <v>0.1148240684719931</v>
+        <v>0.01004639064348758</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4963216666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.488965</v>
+      </c>
+      <c r="I9">
+        <v>0.07855486254950021</v>
+      </c>
+      <c r="J9">
+        <v>0.07855486254950021</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.147854</v>
+      </c>
+      <c r="N9">
+        <v>12.443562</v>
+      </c>
+      <c r="O9">
+        <v>0.1131732569020131</v>
+      </c>
+      <c r="P9">
+        <v>0.1131732569020132</v>
+      </c>
+      <c r="Q9">
+        <v>2.05866981037</v>
+      </c>
+      <c r="R9">
+        <v>18.52802829333</v>
+      </c>
+      <c r="S9">
+        <v>0.008890309640216918</v>
+      </c>
+      <c r="T9">
+        <v>0.00889030964021692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.071838666666667</v>
+      </c>
+      <c r="H10">
+        <v>15.215516</v>
+      </c>
+      <c r="I10">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="J10">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.76206733333333</v>
+      </c>
+      <c r="N10">
+        <v>56.286202</v>
+      </c>
+      <c r="O10">
+        <v>0.5119187575860197</v>
+      </c>
+      <c r="P10">
+        <v>0.5119187575860197</v>
+      </c>
+      <c r="Q10">
+        <v>95.15817856780356</v>
+      </c>
+      <c r="R10">
+        <v>856.423607110232</v>
+      </c>
+      <c r="S10">
+        <v>0.4109380086138146</v>
+      </c>
+      <c r="T10">
+        <v>0.4109380086138146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.071838666666667</v>
+      </c>
+      <c r="H11">
+        <v>15.215516</v>
+      </c>
+      <c r="I11">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="J11">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.053322999999999</v>
+      </c>
+      <c r="N11">
+        <v>27.159969</v>
+      </c>
+      <c r="O11">
+        <v>0.2470178674794012</v>
+      </c>
+      <c r="P11">
+        <v>0.2470178674794012</v>
+      </c>
+      <c r="Q11">
+        <v>45.91699365322267</v>
+      </c>
+      <c r="R11">
+        <v>413.252942879004</v>
+      </c>
+      <c r="S11">
+        <v>0.1982912894864169</v>
+      </c>
+      <c r="T11">
+        <v>0.1982912894864169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.071838666666667</v>
+      </c>
+      <c r="H12">
+        <v>15.215516</v>
+      </c>
+      <c r="I12">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="J12">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.687234</v>
+      </c>
+      <c r="N12">
+        <v>14.061702</v>
+      </c>
+      <c r="O12">
+        <v>0.1278901180325659</v>
+      </c>
+      <c r="P12">
+        <v>0.1278901180325659</v>
+      </c>
+      <c r="Q12">
+        <v>23.77289464091467</v>
+      </c>
+      <c r="R12">
+        <v>213.956051768232</v>
+      </c>
+      <c r="S12">
+        <v>0.1026625995763739</v>
+      </c>
+      <c r="T12">
+        <v>0.1026625995763739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.071838666666667</v>
+      </c>
+      <c r="H13">
+        <v>15.215516</v>
+      </c>
+      <c r="I13">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="J13">
+        <v>0.8027406742265409</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.147854</v>
+      </c>
+      <c r="N13">
+        <v>12.443562</v>
+      </c>
+      <c r="O13">
+        <v>0.1131732569020131</v>
+      </c>
+      <c r="P13">
+        <v>0.1131732569020132</v>
+      </c>
+      <c r="Q13">
+        <v>21.037246300888</v>
+      </c>
+      <c r="R13">
+        <v>189.335216707992</v>
+      </c>
+      <c r="S13">
+        <v>0.09084877654993556</v>
+      </c>
+      <c r="T13">
+        <v>0.09084877654993558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.05225357806967</v>
-      </c>
-      <c r="H9">
-        <v>4.05225357806967</v>
-      </c>
-      <c r="I9">
-        <v>0.8943421004779297</v>
-      </c>
-      <c r="J9">
-        <v>0.8943421004779297</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.12563277994157</v>
-      </c>
-      <c r="N9">
-        <v>4.12563277994157</v>
-      </c>
-      <c r="O9">
-        <v>0.1250693962241997</v>
-      </c>
-      <c r="P9">
-        <v>0.1250693962241997</v>
-      </c>
-      <c r="Q9">
-        <v>16.71811019431975</v>
-      </c>
-      <c r="R9">
-        <v>16.71811019431975</v>
-      </c>
-      <c r="S9">
-        <v>0.1118548265246572</v>
-      </c>
-      <c r="T9">
-        <v>0.1118548265246572</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2246166666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.6738500000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="J14">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>18.76206733333333</v>
+      </c>
+      <c r="N14">
+        <v>56.286202</v>
+      </c>
+      <c r="O14">
+        <v>0.5119187575860197</v>
+      </c>
+      <c r="P14">
+        <v>0.5119187575860197</v>
+      </c>
+      <c r="Q14">
+        <v>4.214273024188889</v>
+      </c>
+      <c r="R14">
+        <v>37.9284572177</v>
+      </c>
+      <c r="S14">
+        <v>0.0181992235494622</v>
+      </c>
+      <c r="T14">
+        <v>0.0181992235494622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2246166666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.6738500000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="J15">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.053322999999999</v>
+      </c>
+      <c r="N15">
+        <v>27.159969</v>
+      </c>
+      <c r="O15">
+        <v>0.2470178674794012</v>
+      </c>
+      <c r="P15">
+        <v>0.2470178674794012</v>
+      </c>
+      <c r="Q15">
+        <v>2.033527234516666</v>
+      </c>
+      <c r="R15">
+        <v>18.30174511065</v>
+      </c>
+      <c r="S15">
+        <v>0.008781732109540157</v>
+      </c>
+      <c r="T15">
+        <v>0.008781732109540157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2246166666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.6738500000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="J16">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.687234</v>
+      </c>
+      <c r="N16">
+        <v>14.061702</v>
+      </c>
+      <c r="O16">
+        <v>0.1278901180325659</v>
+      </c>
+      <c r="P16">
+        <v>0.1278901180325659</v>
+      </c>
+      <c r="Q16">
+        <v>1.052830876966667</v>
+      </c>
+      <c r="R16">
+        <v>9.475477892700001</v>
+      </c>
+      <c r="S16">
+        <v>0.004546621535841408</v>
+      </c>
+      <c r="T16">
+        <v>0.004546621535841409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2246166666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.6738500000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="J17">
+        <v>0.03555099960642508</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.147854</v>
+      </c>
+      <c r="N17">
+        <v>12.443562</v>
+      </c>
+      <c r="O17">
+        <v>0.1131732569020131</v>
+      </c>
+      <c r="P17">
+        <v>0.1131732569020132</v>
+      </c>
+      <c r="Q17">
+        <v>0.9316771393000001</v>
+      </c>
+      <c r="R17">
+        <v>8.3850942537</v>
+      </c>
+      <c r="S17">
+        <v>0.004023422411581314</v>
+      </c>
+      <c r="T17">
+        <v>0.004023422411581315</v>
       </c>
     </row>
   </sheetData>
